--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/CDE/15/seed3/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/CDE/15/seed3/result_data_RandomForest.xlsx
@@ -491,7 +491,7 @@
         <v>-8.949999999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>16.45029999999999</v>
+        <v>16.62509999999999</v>
       </c>
     </row>
     <row r="4">
@@ -556,7 +556,7 @@
         <v>-11.52</v>
       </c>
       <c r="D7" t="n">
-        <v>-7.005</v>
+        <v>-6.989399999999997</v>
       </c>
       <c r="E7" t="n">
         <v>17.28</v>
@@ -570,7 +570,7 @@
         <v>2.91</v>
       </c>
       <c r="C8" t="n">
-        <v>-11.8817</v>
+        <v>-12.5369</v>
       </c>
       <c r="D8" t="n">
         <v>-8.029999999999999</v>
@@ -604,7 +604,7 @@
         <v>6.17</v>
       </c>
       <c r="C10" t="n">
-        <v>-13.0626</v>
+        <v>-12.9301</v>
       </c>
       <c r="D10" t="n">
         <v>-8.85</v>
@@ -638,7 +638,7 @@
         <v>4.54</v>
       </c>
       <c r="C12" t="n">
-        <v>-10.8409</v>
+        <v>-10.83089999999999</v>
       </c>
       <c r="D12" t="n">
         <v>-6.85</v>
@@ -692,7 +692,7 @@
         <v>-13.12</v>
       </c>
       <c r="D15" t="n">
-        <v>-7.912000000000002</v>
+        <v>-8.109699999999995</v>
       </c>
       <c r="E15" t="n">
         <v>16.67</v>
@@ -740,13 +740,13 @@
         <v>4.35</v>
       </c>
       <c r="C18" t="n">
-        <v>-13.7788</v>
+        <v>-14.0544</v>
       </c>
       <c r="D18" t="n">
-        <v>-9.368499999999981</v>
+        <v>-9.338199999999985</v>
       </c>
       <c r="E18" t="n">
-        <v>16.3461</v>
+        <v>16.1819</v>
       </c>
     </row>
     <row r="19">
@@ -763,7 +763,7 @@
         <v>-7.9</v>
       </c>
       <c r="E19" t="n">
-        <v>16.51670000000001</v>
+        <v>16.5895</v>
       </c>
     </row>
     <row r="20">
@@ -777,7 +777,7 @@
         <v>-14.88</v>
       </c>
       <c r="D20" t="n">
-        <v>-7.666599999999999</v>
+        <v>-7.618799999999994</v>
       </c>
       <c r="E20" t="n">
         <v>16.97</v>
@@ -899,7 +899,7 @@
         <v>-8.550000000000001</v>
       </c>
       <c r="E27" t="n">
-        <v>16.45499999999999</v>
+        <v>16.65659999999999</v>
       </c>
     </row>
     <row r="28">
@@ -930,7 +930,7 @@
         <v>-11.02</v>
       </c>
       <c r="D29" t="n">
-        <v>-6.943099999999998</v>
+        <v>-6.904300000000002</v>
       </c>
       <c r="E29" t="n">
         <v>17.76</v>
@@ -947,7 +947,7 @@
         <v>-10.71</v>
       </c>
       <c r="D30" t="n">
-        <v>-7.725699999999996</v>
+        <v>-7.772999999999999</v>
       </c>
       <c r="E30" t="n">
         <v>16.57</v>
@@ -964,10 +964,10 @@
         <v>-11.3</v>
       </c>
       <c r="D31" t="n">
-        <v>-7.924499999999997</v>
+        <v>-7.261999999999998</v>
       </c>
       <c r="E31" t="n">
-        <v>16.78020000000001</v>
+        <v>17.09890000000002</v>
       </c>
     </row>
     <row r="32">
@@ -1063,7 +1063,7 @@
         <v>9.41</v>
       </c>
       <c r="C37" t="n">
-        <v>-12.8703</v>
+        <v>-12.7639</v>
       </c>
       <c r="D37" t="n">
         <v>-7.88</v>
@@ -1086,7 +1086,7 @@
         <v>-9.09</v>
       </c>
       <c r="E38" t="n">
-        <v>16.12069999999999</v>
+        <v>16.23539999999999</v>
       </c>
     </row>
     <row r="39">
@@ -1117,7 +1117,7 @@
         <v>-12.94</v>
       </c>
       <c r="D40" t="n">
-        <v>-8.647399999999994</v>
+        <v>-8.520399999999992</v>
       </c>
       <c r="E40" t="n">
         <v>16.16</v>
@@ -1154,7 +1154,7 @@
         <v>-7.75</v>
       </c>
       <c r="E42" t="n">
-        <v>16.47020000000001</v>
+        <v>16.4903</v>
       </c>
     </row>
     <row r="43">
@@ -1188,7 +1188,7 @@
         <v>-8.220000000000001</v>
       </c>
       <c r="E44" t="n">
-        <v>16.24939999999999</v>
+        <v>16.42809999999999</v>
       </c>
     </row>
     <row r="45">
@@ -1239,7 +1239,7 @@
         <v>-8.5</v>
       </c>
       <c r="E47" t="n">
-        <v>16.38839999999999</v>
+        <v>16.54429999999999</v>
       </c>
     </row>
     <row r="48">
@@ -1287,7 +1287,7 @@
         <v>-14.51</v>
       </c>
       <c r="D50" t="n">
-        <v>-8.152599999999996</v>
+        <v>-8.229399999999993</v>
       </c>
       <c r="E50" t="n">
         <v>16.71</v>
@@ -1369,7 +1369,7 @@
         <v>5.38</v>
       </c>
       <c r="C55" t="n">
-        <v>-13.8448</v>
+        <v>-13.62769999999999</v>
       </c>
       <c r="D55" t="n">
         <v>-10.06</v>
@@ -1426,7 +1426,7 @@
         <v>-7.51</v>
       </c>
       <c r="E58" t="n">
-        <v>16.6651</v>
+        <v>16.60390000000001</v>
       </c>
     </row>
     <row r="59">
@@ -1545,7 +1545,7 @@
         <v>-7.07</v>
       </c>
       <c r="E65" t="n">
-        <v>17.2811</v>
+        <v>17.24650000000001</v>
       </c>
     </row>
     <row r="66">
@@ -1590,10 +1590,10 @@
         <v>4.88</v>
       </c>
       <c r="C68" t="n">
-        <v>-10.9817</v>
+        <v>-10.7614</v>
       </c>
       <c r="D68" t="n">
-        <v>-7.030299999999999</v>
+        <v>-6.998799999999997</v>
       </c>
       <c r="E68" t="n">
         <v>17.66</v>
@@ -1681,7 +1681,7 @@
         <v>-6.42</v>
       </c>
       <c r="E73" t="n">
-        <v>17.45330000000001</v>
+        <v>17.27840000000002</v>
       </c>
     </row>
     <row r="74">
@@ -1729,7 +1729,7 @@
         <v>-15.06</v>
       </c>
       <c r="D76" t="n">
-        <v>-7.594499999999998</v>
+        <v>-7.554299999999999</v>
       </c>
       <c r="E76" t="n">
         <v>16.38</v>
@@ -1743,7 +1743,7 @@
         <v>10.09</v>
       </c>
       <c r="C77" t="n">
-        <v>-12.0422</v>
+        <v>-12.2923</v>
       </c>
       <c r="D77" t="n">
         <v>-6.2</v>
@@ -1760,7 +1760,7 @@
         <v>9.640000000000001</v>
       </c>
       <c r="C78" t="n">
-        <v>-13.03280000000001</v>
+        <v>-12.2676</v>
       </c>
       <c r="D78" t="n">
         <v>-6.53</v>
@@ -1811,7 +1811,7 @@
         <v>3.85</v>
       </c>
       <c r="C81" t="n">
-        <v>-13.323</v>
+        <v>-12.9479</v>
       </c>
       <c r="D81" t="n">
         <v>-8.390000000000001</v>
@@ -1828,7 +1828,7 @@
         <v>5.26</v>
       </c>
       <c r="C82" t="n">
-        <v>-12.3817</v>
+        <v>-12.191</v>
       </c>
       <c r="D82" t="n">
         <v>-7.37</v>
@@ -1916,7 +1916,7 @@
         <v>-15.19</v>
       </c>
       <c r="D87" t="n">
-        <v>-8.066899999999999</v>
+        <v>-7.886099999999998</v>
       </c>
       <c r="E87" t="n">
         <v>16.53</v>
@@ -1933,7 +1933,7 @@
         <v>-14.65</v>
       </c>
       <c r="D88" t="n">
-        <v>-7.372199999999997</v>
+        <v>-7.30139999999999</v>
       </c>
       <c r="E88" t="n">
         <v>17.32</v>
@@ -1970,7 +1970,7 @@
         <v>-8.890000000000001</v>
       </c>
       <c r="E90" t="n">
-        <v>16.25999999999999</v>
+        <v>16.39759999999999</v>
       </c>
     </row>
     <row r="91">
@@ -2038,7 +2038,7 @@
         <v>-5.14</v>
       </c>
       <c r="E94" t="n">
-        <v>18.75850000000003</v>
+        <v>18.88720000000002</v>
       </c>
     </row>
     <row r="95">
@@ -2055,7 +2055,7 @@
         <v>-6.44</v>
       </c>
       <c r="E95" t="n">
-        <v>18.15740000000002</v>
+        <v>18.02630000000002</v>
       </c>
     </row>
     <row r="96">
@@ -2069,7 +2069,7 @@
         <v>-10.59</v>
       </c>
       <c r="D96" t="n">
-        <v>-7.867099999999999</v>
+        <v>-7.7723</v>
       </c>
       <c r="E96" t="n">
         <v>16.3</v>
@@ -2103,7 +2103,7 @@
         <v>-13.95</v>
       </c>
       <c r="D98" t="n">
-        <v>-8.291300000000001</v>
+        <v>-8.532500000000004</v>
       </c>
       <c r="E98" t="n">
         <v>15.27</v>
@@ -2154,10 +2154,10 @@
         <v>-11.07</v>
       </c>
       <c r="D101" t="n">
-        <v>-7.860200000000003</v>
+        <v>-7.737599999999997</v>
       </c>
       <c r="E101" t="n">
-        <v>16.74909999999999</v>
+        <v>16.5619</v>
       </c>
     </row>
     <row r="102">
@@ -2171,7 +2171,7 @@
         <v>-12</v>
       </c>
       <c r="D102" t="n">
-        <v>-8.086999999999996</v>
+        <v>-8.020699999999996</v>
       </c>
       <c r="E102" t="n">
         <v>16.08</v>
